--- a/biology/Botanique/Jardin_botanique_alpin_Paradisia/Jardin_botanique_alpin_Paradisia.xlsx
+++ b/biology/Botanique/Jardin_botanique_alpin_Paradisia/Jardin_botanique_alpin_Paradisia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique alpin Paradisia se situe à 1 700 mètres d'altitude, dans le Valnontey, l'une des vallées latérales du val de Cogne, en Vallée d'Aoste, à l'intérieur du Parc national du Grand-Paradis.
 Il tire son nom du Paradisea liliastrum (le lys blanc).
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin Paradisia fut inauguré en 1955 selon la volonté du conseil d’administration du Parc national du Grand-Paradis, afin de conserver et valoriser la flore typique du parc. Ce site fut choisi en raison de sa position, qui permet de reproduire de différents habitats, et, par conséquent, d'accueillir une grande variété d'espèces.
 Au cours des années suivantes, les initiatives du parc améliorèrent le potentiel du jardin. En 1964, près du jardin fut inaugurée une « Station de biologie de montagne », pour favoriser l'activité de recherche concernant la flore et la faune du parc. En 1971, l'administration du parc donna le coup d'envoi à un projet de restauration du jardin sur base écologique, et réalisa entre autres l'herbier de la flore spontanée et la banque de graines.
@@ -545,7 +559,9 @@
           <t>Les collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le jardin Paradisia accueille 1 000 espèces, collectées dans la nature, ou obtenues dans la pépinière.
 Les collections présentes sont notamment :
